--- a/csv/model/CIMS_base/formula_CIMS_base_CAN.xlsx
+++ b/csv/model/CIMS_base/formula_CIMS_base_CAN.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC651D37-BCFD-4ED9-BB66-B8D444510EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{533990D3-CFB2-4BD0-816E-CD7D74468F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{11F10118-9ED0-47FD-BC9C-E5BDBB69167F}"/>
+    <workbookView xWindow="40980" yWindow="4095" windowWidth="17280" windowHeight="8880" xr2:uid="{59DC55D0-275C-4BCA-99DC-6ED2141528FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -463,21 +463,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D176C40F-927A-40BC-83FE-A052DA25DCF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22FA676A-4ADE-4B80-B208-81D29EF44109}">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:X4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -551,7 +551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -568,7 +568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
